--- a/extracted/Customer_data.xlsx
+++ b/extracted/Customer_data.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c3429e1bcae4d09/Documents/Pipeline project - data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c3429e1bcae4d09/Documents/Pipeline project - data/CRED DATA/extract/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{AB7FA102-31BF-4E97-A81C-6BF5018ABEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B990793B-A5DF-467B-90B2-9E8E62EEF869}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{AB7FA102-31BF-4E97-A81C-6BF5018ABEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02BCF4A7-0A18-48C6-9417-C4BB19D3F744}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8B520E2A-56AB-420E-91F9-292DB6EEEA08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B520E2A-56AB-420E-91F9-292DB6EEEA08}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="data-CORRECT" sheetId="2" r:id="rId2"/>
+    <sheet name="data-CORRECT" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>First Name</t>
   </si>
@@ -49,111 +48,6 @@
     <t>Customer Id</t>
   </si>
   <si>
-    <t xml:space="preserve">Shantanu </t>
-  </si>
-  <si>
-    <t>Stanislav</t>
-  </si>
-  <si>
-    <t>Veronika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torsten </t>
-  </si>
-  <si>
-    <t>Marjorie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktoria </t>
-  </si>
-  <si>
-    <t>César</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pirjo </t>
-  </si>
-  <si>
-    <t>Judah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iliya </t>
-  </si>
-  <si>
-    <t>Arete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volkan </t>
-  </si>
-  <si>
-    <t>Arnout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laelius </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haylie </t>
-  </si>
-  <si>
-    <t>Baatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pavle </t>
-  </si>
-  <si>
-    <t>Fenella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toirdhealbhach </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gitta </t>
-  </si>
-  <si>
-    <t>Cicero</t>
-  </si>
-  <si>
-    <t>Susanne</t>
-  </si>
-  <si>
-    <t>Susanne Tyree</t>
-  </si>
-  <si>
-    <t>Mcmillan</t>
-  </si>
-  <si>
-    <t>Nunez</t>
-  </si>
-  <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>Stokes</t>
-  </si>
-  <si>
-    <t>Gates</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>Barajas</t>
-  </si>
-  <si>
-    <t>Thornton</t>
-  </si>
-  <si>
-    <t>Gomez</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Sampson</t>
-  </si>
-  <si>
-    <t>Aguilar</t>
-  </si>
-  <si>
     <t>01/19/2001</t>
   </si>
   <si>
@@ -196,9 +90,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -311,9 +202,6 @@
   </si>
   <si>
     <t>TONTON</t>
-  </si>
-  <si>
-    <t>Eliana Wolfeschlegelsteinhausenbergerdorff LeBron</t>
   </si>
   <si>
     <t>02/24/2005</t>
@@ -335,19 +223,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -535,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -547,11 +429,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -875,336 +752,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1FEE95-71F2-4D24-AD26-2AE21CBB1002}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>131</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>87</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="11">
-        <v>38356</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>234</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="11">
-        <v>34371</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>87</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <v>567</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <v>456</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13">
-        <v>65845</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f>LEN(B10)</f>
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5637CB2-8CD1-42F3-9996-47D52A56005A}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1253,22 +800,22 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1276,22 +823,22 @@
         <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1299,22 +846,22 @@
         <v>131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1322,22 +869,22 @@
         <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1345,22 +892,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1368,22 +915,22 @@
         <v>234</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1391,22 +938,22 @@
         <v>67</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1414,22 +961,22 @@
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,22 +984,22 @@
         <v>567</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1460,22 +1007,22 @@
         <v>67</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1483,45 +1030,45 @@
         <v>456</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+      <c r="A13" s="11">
         <v>98</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
